--- a/Pages/Historical_Massacres/tantura-1948.xlsx
+++ b/Pages/Historical_Massacres/tantura-1948.xlsx
@@ -13,17 +13,16 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Quick Facts" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Perpetrators" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Timeline" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="War Crimes List" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="War Crimes Detail" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Testimonies" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sources" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Executive Summary" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="International Law" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Casualties" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Impact" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Media Images" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Media Docs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CTA Buttons" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="War Crimes Detail" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Testimonies" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sources" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Executive Summary" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="International Law" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Casualties" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Historical Impact" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Media Images" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Media Docs" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CTA Buttons" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,7 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>hist002</t>
+          <t>hist003</t>
         </is>
       </c>
     </row>
@@ -553,7 +552,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Yassin</t>
+          <t>aliattia02</t>
         </is>
       </c>
     </row>
@@ -705,349 +704,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Icon</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Verified</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>🎓</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Teddy Katz Research (1998-1999)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Academic Research</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>MA thesis based on 140+ interviews with Alexandroni Brigade veterans and Palestinian survivors. Most comprehensive documentation despite forced retraction.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.haaretz.com/israel-news/2022-01-20/ty-article-magazine/.premium/tantura-the-massacre-at-the-heart-of-the-nakba-that-israelis-refuse-to-recogn/0000017f-e2a5-d7b2-a77f-e2a7ccb30000</t>
-        </is>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>🎬</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Tantura Documentary (2022)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Documentary Film</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Film by Alon Schwarz featuring recorded testimonies from Alexandroni Brigade veterans confirming the massacre. Released at Sundance 2022.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.aljazeera.com/features/2022/1/27/tantura-a-film-about-a-massacre-israel-didnt-want-you-to-see</t>
-        </is>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>📰</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Haaretz Investigations</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Investigative Journalism</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Extensive reporting on Tantura massacre, Katz affair, and ongoing cover-up. Access to court documents and archived testimonies.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.haaretz.com/</t>
-        </is>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>🇵🇸</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Institute for Palestine Studies</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Research Institute</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Oral history project documenting survivor testimonies, village records, and demographic data. Preservation of Palestinian collective memory.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://www.palestine-studies.org/</t>
-        </is>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>📚</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Academic Research</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Peer-Reviewed Scholarship</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Key works: Ilan Pappé 'The Ethnic Cleansing of Palestine' (2006), Benny Morris 'The Birth of the Palestinian Refugee Problem Revisited' (2004), Adam Raz archival research.</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>⚖️</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Israeli Court Documents</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Legal Records</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Libel case documents (2000) including soldier depositions, testimonies, and Katz's research materials. Public record despite attempted suppression.</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>🗺️</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Zochrot Organization</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Israeli NGO</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Documentation of destroyed Palestinian villages including Tantura. Promotes acknowledgment of Nakba in Israeli society.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://www.zochrot.org/</t>
-        </is>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>🇮🇱</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Israeli Military Archives</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>IDF Historical Archives</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Partial documentation of Alexandroni Brigade operations. Many files remain classified or 'disappeared' regarding Tantura.</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://www.archives.mod.gov.il/</t>
-        </is>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>⚖️</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ICRC IHL Treaties Database – Hague (IV) 1907</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Primary law</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Regulations Arts. 23, 25, 28, 46; customary status by 1948.</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://ihl-databases.icrc.org/en/ihl-treaties/hague-conv-iv-1907</t>
-        </is>
-      </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>🇺🇳</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>UN Treaty Collection – Geneva Conventions 1949</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Treaty status</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Adoption Aug 12, 1949; Israel ratified Jul 6, 1951.</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https://treaties.un.org/pages/showdetails.aspx?objid=0800000280158b1a</t>
-        </is>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1114,7 +770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1270,13 +926,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1305,6 +961,11 @@
           <t>Detail</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sources</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1327,6 +988,11 @@
           <t>Primarily men aged 15-60, executed after surrender; bodies buried in mass graves</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Katz, Teddy. MA Thesis (1998) - Based on 140+ interviews: https://www.haaretz.com/israel-news/2022-01-20/ty-article-magazine/.premium/tantura-the-massacre-at-the-heart-of-the-nakba-that-israelis-refuse-to-recogn/0000017f-e2a5-d7b2-a77f-e2a7ccb30000 | Shechter, Binyamin. Testimony in 'Tantura' documentary (2022): https://www.aljazeera.com/features/2022/1/27/tantura-a-film-about-a-massacre-israel-didnt-want-you-to-see</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1349,6 +1015,7 @@
           <t>Most male captives were killed rather than detained</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1369,6 +1036,11 @@
       <c r="D4" t="inlineStr">
         <is>
           <t>Entire village population expelled; many sent to Furaydis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Zochrot - Tantura Village File: https://www.zochrot.org/</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1743,7 +1415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1798,7 +1470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1816,7 +1488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2691,32 +2363,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>War Crime</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2782,7 +2428,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>🖐️</t>
+          <t>🏳</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2930,7 +2576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2999,7 +2645,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Interview with Teddy Katz, 1998</t>
+          <t>Interview with Teddy Katz (1998)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -3031,7 +2677,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Survivor testimony documented by Teddy Katz, 1998</t>
+          <t>Survivor testimony documented by Teddy Katz (1998)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -3063,7 +2709,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Interview in 'Tantura' documentary, 2022</t>
+          <t>Interview in 'Tantura' documentary (2022)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -3134,6 +2780,383 @@
         <is>
           <t>https://www.palestine-studies.org/</t>
         </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Icon</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>🎓</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Katz, Teddy. 'The Exodus of Arabs from Villages at the Foot of Southern Mount Carmel in 1948' - MA Thesis, University of Haifa (1998)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Academic Research</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Based on 140+ interviews with Alexandroni Brigade veterans and Palestinian survivors. Most comprehensive documentation despite forced retraction.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.haaretz.com/israel-news/2022-01-20/ty-article-magazine/.premium/tantura-the-massacre-at-the-heart-of-the-nakba-that-israelis-refuse-to-recogn/0000017f-e2a5-d7b2-a77f-e2a7ccb30000</t>
+        </is>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>🎬</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Schwarz, Alon. 'Tantura' Documentary Film (2022)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Documentary Evidence</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Features recorded testimonies from Alexandroni Brigade veterans confirming the massacre. Premiered at Sundance Film Festival 2022.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.aljazeera.com/features/2022/1/27/tantura-a-film-about-a-massacre-israel-didnt-want-you-to-see</t>
+        </is>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>📰</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Haaretz. 'Tantura: The Massacre at the Heart of the Nakba That Israelis Refuse to Recognize' (January 2022)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Investigative Journalism</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Comprehensive investigation into the massacre, Katz affair, and ongoing cover-up. Access to court documents and archived testimonies.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.haaretz.com/israel-news/2022-01-20/ty-article-magazine/.premium/tantura-the-massacre-at-the-heart-of-the-nakba-that-israelis-refuse-to-recogn/0000017f-e2a5-d7b2-a77f-e2a7ccb30000</t>
+        </is>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>🇵🇸</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Institute for Palestine Studies - Oral History Project</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Primary Sources - Survivor Testimonies</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Documented survivor testimonies, village records, and demographic data. Preservation of Palestinian collective memory.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.palestine-studies.org/</t>
+        </is>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>📚</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pappé, Ilan. 'The Ethnic Cleansing of Palestine' (Oneworld Publications, 2006)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Peer-Reviewed Scholarship</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Includes analysis of Tantura massacre within broader context of 1948 expulsions and Plan Dalet.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.oip.oup.com/www.oup.com/academic/pdf/13/9781851685554.pdf</t>
+        </is>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>📚</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Morris, Benny. 'The Birth of the Palestinian Refugee Problem Revisited' (Cambridge, 2004)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Peer-Reviewed Scholarship</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>References Tantura in coastal operations; acknowledges killings occurred though disputes scale.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.cambridge.org/core/books/birth-of-the-palestinian-refugee-problem-revisited/4A0958EED322D2FAC1D245128A1D44CB</t>
+        </is>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>⚖️</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Israeli Supreme Court. Alexandroni Brigade Association v. Katz (2000) - Libel Case Documents</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Legal Records</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Court case documents including soldier depositions, testimonies, and Katz's research materials. Public record despite attempted suppression.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>🗺️</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Zochrot Organization - Tantura Village File</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Israeli NGO Documentation</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Documentation of destroyed Palestinian villages including Tantura. Promotes acknowledgment of Nakba in Israeli society.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.zochrot.org/</t>
+        </is>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>🏛️</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Israeli Defense Forces Archives</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Military Records</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Partial documentation of Alexandroni Brigade operations May 1948. Many files remain classified or 'disappeared' regarding Tantura.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.archives.mod.gov.il/</t>
+        </is>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>⚖️</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ICRC IHL Treaties Database – Hague Convention IV (1907)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Primary International Law</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Regulations Arts. 23, 25, 28, 46; customary status by 1948.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://ihl-databases.icrc.org/en/ihl-treaties/hague-conv-iv-1907</t>
+        </is>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>🇺🇳</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>UN Treaty Collection – Geneva Conventions (1949)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Treaty Status Documentation</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Adoption Aug 12, 1949; Israel ratified Jul 6, 1951.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://treaties.un.org/pages/showdetails.aspx?objid=0800000280158b1a</t>
+        </is>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
